--- a/teaching/traditional_assets/database/data/pakistan/pakistan_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_investments_asset_management.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.006540000000000001</v>
+        <v>0.04155</v>
       </c>
       <c r="E2">
-        <v>-0.525</v>
+        <v>0.0546</v>
       </c>
       <c r="G2">
-        <v>-0.07069628363947028</v>
+        <v>0.2128576072821846</v>
       </c>
       <c r="H2">
-        <v>-0.07454079453225115</v>
+        <v>0.2115572171651495</v>
       </c>
       <c r="I2">
-        <v>-0.795173002990175</v>
+        <v>0.383777633289987</v>
       </c>
       <c r="J2">
-        <v>-0.7324807918379846</v>
+        <v>0.3564938545847903</v>
       </c>
       <c r="K2">
-        <v>-4.189</v>
+        <v>5.835</v>
       </c>
       <c r="L2">
-        <v>-0.8947031183255019</v>
+        <v>0.4742360208062419</v>
       </c>
       <c r="M2">
-        <v>4.118</v>
+        <v>3.226</v>
       </c>
       <c r="N2">
-        <v>0.1212174732132344</v>
+        <v>0.0763369616658779</v>
       </c>
       <c r="O2">
-        <v>-0.9830508474576272</v>
+        <v>0.5528706083976007</v>
       </c>
       <c r="P2">
-        <v>1.998</v>
+        <v>3.226</v>
       </c>
       <c r="Q2">
-        <v>0.05881314023313317</v>
+        <v>0.0763369616658779</v>
       </c>
       <c r="R2">
-        <v>-0.4769634757698735</v>
+        <v>0.5528706083976007</v>
       </c>
       <c r="S2">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.5148130160271976</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.387</v>
+        <v>6.038</v>
       </c>
       <c r="V2">
-        <v>0.2174437772283056</v>
+        <v>0.1428774254614293</v>
       </c>
       <c r="W2">
-        <v>-0.0711864406779661</v>
+        <v>0.09771689497716894</v>
       </c>
       <c r="X2">
-        <v>0.08299861377474124</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="Y2">
-        <v>-0.1541850544527074</v>
+        <v>0.0278430807670248</v>
       </c>
       <c r="Z2">
-        <v>0.08034182167616172</v>
+        <v>0.3138375207243974</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08299861377474124</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="AC2">
-        <v>-0.1227842862648086</v>
+        <v>-0.06987381421014414</v>
       </c>
       <c r="AD2">
-        <v>2.176</v>
+        <v>5.832</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.176</v>
+        <v>5.832</v>
       </c>
       <c r="AG2">
-        <v>-5.210999999999999</v>
+        <v>-0.2060000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.06019696802036074</v>
+        <v>0.1212675704898944</v>
       </c>
       <c r="AI2">
-        <v>0.04617114727662374</v>
+        <v>0.1131877729257642</v>
       </c>
       <c r="AJ2">
-        <v>-0.1811828517784499</v>
+        <v>-0.004898463879773635</v>
       </c>
       <c r="AK2">
-        <v>-0.1311207287001157</v>
+        <v>-0.004528766460747036</v>
       </c>
       <c r="AL2">
-        <v>0.25</v>
+        <v>0.509</v>
       </c>
       <c r="AM2">
-        <v>0.246</v>
+        <v>0.398</v>
       </c>
       <c r="AN2">
-        <v>-0.6778816199376948</v>
+        <v>1.158982511923688</v>
       </c>
       <c r="AO2">
-        <v>-14.892</v>
+        <v>9.277013752455796</v>
       </c>
       <c r="AP2">
-        <v>1.623364485981308</v>
+        <v>-0.04093799682034984</v>
       </c>
       <c r="AQ2">
-        <v>-15.13414634146341</v>
+        <v>11.8643216080402</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0229</v>
+        <v>0.0313</v>
       </c>
       <c r="E3">
-        <v>-0.525</v>
+        <v>0.0546</v>
       </c>
       <c r="G3">
-        <v>0.1854875283446712</v>
+        <v>0.4129263913824057</v>
       </c>
       <c r="H3">
-        <v>0.1854875283446712</v>
+        <v>0.4129263913824057</v>
       </c>
       <c r="I3">
-        <v>0.1240362811791383</v>
+        <v>0.5080789946140036</v>
       </c>
       <c r="J3">
-        <v>0.06201814058956916</v>
+        <v>0.3953146997662194</v>
       </c>
       <c r="K3">
-        <v>0.031</v>
+        <v>2.16</v>
       </c>
       <c r="L3">
-        <v>0.007029478458049887</v>
+        <v>0.3877917414721724</v>
       </c>
       <c r="M3">
-        <v>0.806</v>
+        <v>1.02</v>
       </c>
       <c r="N3">
-        <v>0.07901960784313726</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="O3">
-        <v>26</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="P3">
-        <v>0.806</v>
+        <v>1.02</v>
       </c>
       <c r="Q3">
-        <v>0.07901960784313726</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="R3">
-        <v>26</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.499</v>
+        <v>0.16</v>
       </c>
       <c r="V3">
-        <v>0.04892156862745099</v>
+        <v>0.0126984126984127</v>
       </c>
       <c r="W3">
-        <v>0.002403100775193799</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="X3">
-        <v>0.08403627946348922</v>
+        <v>0.07088001256841266</v>
       </c>
       <c r="Y3">
-        <v>-0.08163317868829542</v>
+        <v>0.1579335467536213</v>
       </c>
       <c r="Z3">
-        <v>0.3664007976071785</v>
+        <v>0.6437817845584837</v>
       </c>
       <c r="AA3">
-        <v>0.02272349617813227</v>
+        <v>0.2544964028776979</v>
       </c>
       <c r="AB3">
-        <v>0.08344071502136999</v>
+        <v>0.07046270422986359</v>
       </c>
       <c r="AC3">
-        <v>-0.06071721884323772</v>
+        <v>0.1840336986478343</v>
       </c>
       <c r="AD3">
-        <v>0.237</v>
+        <v>0.322</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.237</v>
+        <v>0.322</v>
       </c>
       <c r="AG3">
-        <v>-0.262</v>
+        <v>0.162</v>
       </c>
       <c r="AH3">
-        <v>0.02270767461914343</v>
+        <v>0.02491874322860239</v>
       </c>
       <c r="AI3">
-        <v>0.02449106127932211</v>
+        <v>0.03119550474714203</v>
       </c>
       <c r="AJ3">
-        <v>-0.02636345341114913</v>
+        <v>0.01269393511988716</v>
       </c>
       <c r="AK3">
-        <v>-0.02854652429723252</v>
+        <v>0.01594174375123007</v>
       </c>
       <c r="AL3">
-        <v>0.005</v>
+        <v>0.045</v>
       </c>
       <c r="AM3">
-        <v>0.005</v>
+        <v>0.045</v>
       </c>
       <c r="AN3">
-        <v>0.3376068376068376</v>
+        <v>0.1066225165562914</v>
       </c>
       <c r="AO3">
-        <v>109.4</v>
+        <v>62.88888888888889</v>
       </c>
       <c r="AP3">
-        <v>-0.3732193732193733</v>
+        <v>0.05364238410596027</v>
       </c>
       <c r="AQ3">
-        <v>109.4</v>
+        <v>62.88888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arpak International Investments Limited (KASE:ARPAK)</t>
+          <t>Cyan Limited (KASE:CYAN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,43 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0484</v>
+        <v>-0.139</v>
+      </c>
+      <c r="E4">
+        <v>-0.189</v>
       </c>
       <c r="G4">
-        <v>0.08108108108108107</v>
+        <v>0.2710144927536232</v>
       </c>
       <c r="H4">
-        <v>0.08108108108108107</v>
+        <v>0.2652173913043478</v>
       </c>
       <c r="I4">
-        <v>0.09009009009009009</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="J4">
-        <v>0.0854156042835288</v>
+        <v>0.589029535864979</v>
       </c>
       <c r="K4">
-        <v>0.201</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>1.810810810810811</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="M4">
-        <v>0.016</v>
+        <v>0.361</v>
       </c>
       <c r="N4">
-        <v>0.02957486136783734</v>
+        <v>0.02542253521126761</v>
       </c>
       <c r="O4">
-        <v>0.07960199004975124</v>
+        <v>0.2578571428571428</v>
       </c>
       <c r="P4">
-        <v>0.016</v>
+        <v>0.361</v>
       </c>
       <c r="Q4">
-        <v>0.02957486136783734</v>
+        <v>0.02542253521126761</v>
       </c>
       <c r="R4">
-        <v>0.07960199004975124</v>
+        <v>0.2578571428571428</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,67 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.002042253521126761</v>
       </c>
       <c r="W4">
-        <v>0.04011976047904192</v>
+        <v>0.1217391304347826</v>
       </c>
       <c r="X4">
-        <v>0.08299861377474124</v>
+        <v>0.07982796881995903</v>
       </c>
       <c r="Y4">
-        <v>-0.04287885329569932</v>
+        <v>0.04191116161482357</v>
       </c>
       <c r="Z4">
-        <v>0.02217339192968438</v>
+        <v>0.2414698162729659</v>
       </c>
       <c r="AA4">
-        <v>0.001893953670689512</v>
+        <v>0.1422328538046669</v>
       </c>
       <c r="AB4">
-        <v>0.08299861377474124</v>
+        <v>0.07464280583377668</v>
       </c>
       <c r="AC4">
-        <v>-0.08110466010405173</v>
+        <v>0.06759004797089017</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>3.59</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>3.561</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.2017987633501968</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.2347939829954218</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.2004954675975452</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>0.2333398859838805</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1.879581151832461</v>
+      </c>
+      <c r="AO4">
+        <v>7.479674796747968</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.864397905759162</v>
+      </c>
+      <c r="AQ4">
+        <v>7.479674796747968</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sindh Modaraba (KASE:SINDM)</t>
+          <t>JS Investments Limited (KASE:JSIL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,41 +992,47 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.0599</v>
+      </c>
+      <c r="E5">
+        <v>-0.197</v>
+      </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0.140072202166065</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0.140072202166065</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2227436823104693</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2227436823104693</v>
       </c>
       <c r="K5">
-        <v>0.586</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="L5">
-        <v>0.6628959276018099</v>
+        <v>0.2953068592057762</v>
       </c>
       <c r="M5">
-        <v>0.215</v>
+        <v>1.48</v>
       </c>
       <c r="N5">
-        <v>0.09347826086956522</v>
+        <v>0.1649944258639911</v>
       </c>
       <c r="O5">
-        <v>0.3668941979522184</v>
+        <v>1.809290953545232</v>
       </c>
       <c r="P5">
-        <v>0.215</v>
+        <v>1.48</v>
       </c>
       <c r="Q5">
-        <v>0.09347826086956522</v>
+        <v>0.1649944258639911</v>
       </c>
       <c r="R5">
-        <v>0.3668941979522184</v>
+        <v>1.809290953545232</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1026,61 +1041,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>6.59</v>
+        <v>0.06</v>
       </c>
       <c r="V5">
-        <v>2.865217391304348</v>
+        <v>0.00668896321070234</v>
       </c>
       <c r="W5">
-        <v>0.07279503105590061</v>
+        <v>0.06704918032786886</v>
       </c>
       <c r="X5">
-        <v>0.08299861377474124</v>
+        <v>0.07830147531764248</v>
       </c>
       <c r="Y5">
-        <v>-0.01020358271884063</v>
+        <v>-0.01125229498977362</v>
       </c>
       <c r="Z5">
-        <v>0.3683333333333333</v>
+        <v>0.1999566880820039</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.04453908900599148</v>
       </c>
       <c r="AB5">
-        <v>0.08299861377474124</v>
+        <v>0.07404041035876871</v>
       </c>
       <c r="AC5">
-        <v>-0.08299861377474124</v>
+        <v>-0.02950132135277723</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG5">
-        <v>-6.59</v>
+        <v>1.86</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.1763085399449036</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.1521394611727417</v>
       </c>
       <c r="AJ5">
-        <v>1.536130536130536</v>
+        <v>0.1717451523545706</v>
       </c>
       <c r="AK5">
-        <v>329.500000000007</v>
+        <v>0.1480891719745223</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.114</v>
+      </c>
+      <c r="AN5">
+        <v>2.935779816513761</v>
+      </c>
+      <c r="AO5">
+        <v>2.84331797235023</v>
+      </c>
+      <c r="AP5">
+        <v>2.844036697247706</v>
+      </c>
+      <c r="AQ5">
+        <v>5.412280701754386</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1118,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unicap Modaraba (KASE:UCAPM)</t>
+          <t>Sindh Modaraba (KASE:SINDM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1099,9 +1126,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D6">
-        <v>-0.006540000000000001</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1115,82 +1139,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.021</v>
+        <v>0.642</v>
       </c>
       <c r="L6">
-        <v>-1.4</v>
+        <v>0.6557711950970379</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>0.365</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.1489795918367347</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.5685358255451713</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>0.365</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.1489795918367347</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.5685358255451713</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2.277551020408163</v>
       </c>
       <c r="W6">
-        <v>-0.0711864406779661</v>
+        <v>0.09771689497716894</v>
       </c>
       <c r="X6">
-        <v>0.1343011354299671</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="Y6">
-        <v>-0.2054875761079332</v>
+        <v>0.0278430807670248</v>
       </c>
       <c r="Z6">
-        <v>0.03562945368171021</v>
+        <v>-48.95000000000104</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.1227842862648086</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="AC6">
-        <v>-0.1227842862648086</v>
+        <v>-0.06987381421014414</v>
       </c>
       <c r="AD6">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.139</v>
+        <v>-5.58</v>
       </c>
       <c r="AH6">
-        <v>0.5346153846153846</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.3839779005524863</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.5346153846153846</v>
+        <v>1.782747603833866</v>
       </c>
       <c r="AK6">
-        <v>0.3839779005524863</v>
+        <v>-1.430769230769231</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1207,7 +1234,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>JS Investments Limited (KASE:JSIL)</t>
+          <t>Unicap Modaraba (KASE:UCAPM)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,34 +1243,34 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.145</v>
+        <v>0.07730000000000001</v>
       </c>
       <c r="G7">
-        <v>0.2020512820512821</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2020512820512821</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.3435897435897436</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.3435897435897436</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-1.63</v>
+        <v>-0.019</v>
       </c>
       <c r="L7">
-        <v>-0.8358974358974358</v>
+        <v>-3.8</v>
       </c>
       <c r="M7">
-        <v>2.12</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.3281733746130031</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>-1.300613496932515</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1255,79 +1282,64 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>2.12</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.02275541795665634</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>-0.08670212765957445</v>
+        <v>-0.08520179372197309</v>
       </c>
       <c r="X7">
-        <v>0.09544230624473722</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="Y7">
-        <v>-0.1821444339043117</v>
+        <v>-0.1550756079321172</v>
       </c>
       <c r="Z7">
-        <v>0.1023138674641901</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="AA7">
-        <v>-0.0351539954876961</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.08873622131855255</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="AC7">
-        <v>-0.1238902168062486</v>
+        <v>-0.06987381421014414</v>
       </c>
       <c r="AD7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1.653</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.2179176755447942</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.1285714285714286</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.2037470725995316</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.1193243340792608</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.179</v>
-      </c>
-      <c r="AN7">
-        <v>-5.04201680672269</v>
-      </c>
-      <c r="AO7">
-        <v>-3.701657458563536</v>
-      </c>
-      <c r="AP7">
-        <v>-4.630252100840337</v>
-      </c>
-      <c r="AQ7">
-        <v>-3.743016759776537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1347,25 +1359,28 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.52</v>
+        <v>0.0602</v>
+      </c>
+      <c r="E8">
+        <v>0.404</v>
       </c>
       <c r="G8">
-        <v>-95</v>
+        <v>-0.3223140495867769</v>
       </c>
       <c r="H8">
-        <v>-95</v>
+        <v>-0.3223140495867769</v>
       </c>
       <c r="I8">
-        <v>-95</v>
+        <v>-0.1074380165289256</v>
       </c>
       <c r="J8">
-        <v>-95</v>
+        <v>-0.09208972845336483</v>
       </c>
       <c r="K8">
-        <v>-0.216</v>
+        <v>0.054</v>
       </c>
       <c r="L8">
-        <v>-108</v>
+        <v>0.4462809917355372</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1374,7 +1389,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1383,37 +1398,37 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.081</v>
+        <v>0.209</v>
       </c>
       <c r="V8">
-        <v>0.03306122448979592</v>
+        <v>0.19</v>
       </c>
       <c r="W8">
-        <v>-0.1148936170212766</v>
+        <v>0.0421875</v>
       </c>
       <c r="X8">
-        <v>0.08299861377474124</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="Y8">
-        <v>-0.1978922307960178</v>
+        <v>-0.02768631421014415</v>
       </c>
       <c r="Z8">
-        <v>0.001078748651564186</v>
+        <v>0.1009174311926605</v>
       </c>
       <c r="AA8">
-        <v>-0.1024811218985976</v>
+        <v>-0.009293458834743239</v>
       </c>
       <c r="AB8">
-        <v>0.08299861377474124</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="AC8">
-        <v>-0.1854797356733389</v>
+        <v>-0.07916727304488738</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1425,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>-0.081</v>
+        <v>-0.209</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1434,25 +1449,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-0.03419164204305614</v>
+        <v>-0.2345679012345679</v>
       </c>
       <c r="AK8">
-        <v>-0.06755629691409508</v>
+        <v>-0.1769686706181202</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM8">
-        <v>-0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="AN8">
         <v>-0</v>
       </c>
+      <c r="AO8">
+        <v>-13</v>
+      </c>
       <c r="AP8">
-        <v>0.4602272727272728</v>
+        <v>209</v>
       </c>
       <c r="AQ8">
-        <v>95</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -1463,7 +1481,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cyan Limited (KASE:CYAN)</t>
+          <t>Arpak International Investments Limited (KASE:ARPAK)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1471,74 +1489,77 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.0518</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
       <c r="G9">
-        <v>0.5063197026022305</v>
+        <v>-0.0202020202020202</v>
       </c>
       <c r="H9">
-        <v>0.5130111524163569</v>
+        <v>-0.0202020202020202</v>
       </c>
       <c r="I9">
-        <v>1.271375464684015</v>
+        <v>-5.575757575757576</v>
       </c>
       <c r="J9">
-        <v>1.271375464684015</v>
+        <v>-5.484351713859911</v>
       </c>
       <c r="K9">
-        <v>-3.14</v>
+        <v>0.78</v>
       </c>
       <c r="L9">
-        <v>1.16728624535316</v>
+        <v>7.878787878787879</v>
       </c>
       <c r="M9">
-        <v>0.961</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.08075630252100839</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>-0.3060509554140127</v>
+        <v>-0</v>
       </c>
       <c r="P9">
-        <v>0.961</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.08075630252100839</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>-0.3060509554140127</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.005882352941176471</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-0.1774011299435028</v>
+        <v>0.2015503875968992</v>
       </c>
       <c r="X9">
-        <v>0.08299861377474124</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="Y9">
-        <v>-0.2603997437182441</v>
+        <v>0.1316765733867551</v>
       </c>
       <c r="Z9">
-        <v>-0.1537142857142857</v>
+        <v>0.02559462254395036</v>
       </c>
       <c r="AA9">
-        <v>-0.1954285714285714</v>
+        <v>-0.1403699120145117</v>
       </c>
       <c r="AB9">
-        <v>0.08299861377474124</v>
+        <v>0.06987381421014414</v>
       </c>
       <c r="AC9">
-        <v>-0.2784271852033127</v>
+        <v>-0.2102437262246558</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1550,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1559,28 +1580,22 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>-0.00591715976331361</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>-0.006124234470691164</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>-0</v>
       </c>
-      <c r="AO9">
-        <v>-53.4375</v>
-      </c>
       <c r="AP9">
-        <v>0.02064896755162242</v>
-      </c>
-      <c r="AQ9">
-        <v>-53.4375</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
